--- a/vglut2_oprm1_subcellular_metrics.xlsx
+++ b/vglut2_oprm1_subcellular_metrics.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO22"/>
+  <dimension ref="A1:AP22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -616,25 +616,30 @@
       </c>
       <c r="AK1" s="1" t="inlineStr">
         <is>
+          <t>Total Cell Count</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
           <t>Subcellular cluster: Channel 2: Area (vglut2_Neg: oprm1_Neg)</t>
         </is>
       </c>
-      <c r="AL1" s="1" t="inlineStr">
+      <c r="AM1" s="1" t="inlineStr">
         <is>
           <t>Subcellular cluster: Channel 2: Mean channel intensity (vglut2_Neg: oprm1_Neg)</t>
         </is>
       </c>
-      <c r="AM1" s="1" t="inlineStr">
+      <c r="AN1" s="1" t="inlineStr">
         <is>
           <t>Subcellular: Channel 2: Num spots estimated (vglut2_Neg: oprm1_Neg)</t>
         </is>
       </c>
-      <c r="AN1" s="1" t="inlineStr">
+      <c r="AO1" s="1" t="inlineStr">
         <is>
           <t>Subcellular: Channel 2: Num single spots (vglut2_Neg: oprm1_Neg)</t>
         </is>
       </c>
-      <c r="AO1" s="1" t="inlineStr">
+      <c r="AP1" s="1" t="inlineStr">
         <is>
           <t>Subcellular: Channel 2: Num clusters (vglut2_Neg: oprm1_Neg)</t>
         </is>
@@ -656,7 +661,7 @@
         <v>0.0160053946</v>
       </c>
       <c r="E2" t="n">
-        <v>1.689914163090129</v>
+        <v>1.127214170692431</v>
       </c>
       <c r="F2" t="n">
         <v>143.7540238095239</v>
@@ -671,7 +676,7 @@
         <v>0.0542912934</v>
       </c>
       <c r="J2" t="n">
-        <v>97.90772532188842</v>
+        <v>65.30685274646628</v>
       </c>
       <c r="K2" t="n">
         <v>104.2968863849765</v>
@@ -686,7 +691,7 @@
         <v>0.003354121099999999</v>
       </c>
       <c r="O2" t="n">
-        <v>0.4023605150214592</v>
+        <v>0.2683843263553409</v>
       </c>
       <c r="P2" t="n">
         <v>25267.88263076936</v>
@@ -698,7 +703,7 @@
         <v>0.49979628</v>
       </c>
       <c r="S2" t="n">
-        <v>49.91952789699571</v>
+        <v>33.29754875648596</v>
       </c>
       <c r="T2" t="n">
         <v>0.07365080909999999</v>
@@ -752,18 +757,21 @@
         <v>81</v>
       </c>
       <c r="AK2" t="n">
-        <v>0</v>
+        <v>5589</v>
       </c>
       <c r="AL2" t="n">
         <v>0</v>
       </c>
       <c r="AM2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN2" t="n">
         <v>1800.5744</v>
       </c>
-      <c r="AN2" t="n">
+      <c r="AO2" t="n">
         <v>1016</v>
       </c>
-      <c r="AO2" t="n">
+      <c r="AP2" t="n">
         <v>234</v>
       </c>
     </row>
@@ -783,7 +791,7 @@
         <v>0.02262314430000001</v>
       </c>
       <c r="E3" t="n">
-        <v>1.193167545842753</v>
+        <v>0.8999621068586585</v>
       </c>
       <c r="F3" t="n">
         <v>161.3961884210526</v>
@@ -798,7 +806,7 @@
         <v>0.1222282651</v>
       </c>
       <c r="J3" t="n">
-        <v>98.43004270283848</v>
+        <v>74.24213717317166</v>
       </c>
       <c r="K3" t="n">
         <v>109.6578657505285</v>
@@ -813,7 +821,7 @@
         <v>0.007344999800000001</v>
       </c>
       <c r="O3" t="n">
-        <v>0.3767897513187641</v>
+        <v>0.284198560060629</v>
       </c>
       <c r="P3" t="n">
         <v>17043.76610220315</v>
@@ -825,7 +833,7 @@
         <v>0.6695397679999999</v>
       </c>
       <c r="S3" t="n">
-        <v>32.57975383069581</v>
+        <v>24.57370215990905</v>
       </c>
       <c r="T3" t="n">
         <v>0.1521964092</v>
@@ -879,18 +887,21 @@
         <v>145</v>
       </c>
       <c r="AK3" t="n">
-        <v>0</v>
+        <v>10556</v>
       </c>
       <c r="AL3" t="n">
         <v>0</v>
       </c>
       <c r="AM3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN3" t="n">
         <v>3341.9515</v>
       </c>
-      <c r="AN3" t="n">
+      <c r="AO3" t="n">
         <v>1847</v>
       </c>
-      <c r="AO3" t="n">
+      <c r="AP3" t="n">
         <v>461</v>
       </c>
     </row>
@@ -910,7 +921,7 @@
         <v>0.0034638594</v>
       </c>
       <c r="E4" t="n">
-        <v>0.7571660356949702</v>
+        <v>0.4036908881199539</v>
       </c>
       <c r="F4" t="n">
         <v>125.9316642857143</v>
@@ -925,7 +936,7 @@
         <v>0.0207456947</v>
       </c>
       <c r="J4" t="n">
-        <v>99.24283396430504</v>
+        <v>52.9123414071511</v>
       </c>
       <c r="K4" t="n">
         <v>99.66651688311688</v>
@@ -952,7 +963,7 @@
         <v>0.4381645112000001</v>
       </c>
       <c r="S4" t="n">
-        <v>87.56084369929692</v>
+        <v>46.68396770472895</v>
       </c>
       <c r="T4" t="n">
         <v>0.0242095541</v>
@@ -1006,18 +1017,21 @@
         <v>0</v>
       </c>
       <c r="AK4" t="n">
-        <v>0</v>
+        <v>3468</v>
       </c>
       <c r="AL4" t="n">
         <v>0</v>
       </c>
       <c r="AM4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN4" t="n">
         <v>1347.2942</v>
       </c>
-      <c r="AN4" t="n">
+      <c r="AO4" t="n">
         <v>867</v>
       </c>
-      <c r="AO4" t="n">
+      <c r="AP4" t="n">
         <v>152</v>
       </c>
     </row>
@@ -1037,7 +1051,7 @@
         <v>0.008600159499999999</v>
       </c>
       <c r="E5" t="n">
-        <v>1.306945481702763</v>
+        <v>0.8075680664513151</v>
       </c>
       <c r="F5" t="n">
         <v>143.3018114285715</v>
@@ -1052,7 +1066,7 @@
         <v>0.0358533908</v>
       </c>
       <c r="J5" t="n">
-        <v>98.35698282300224</v>
+        <v>60.77526534379326</v>
       </c>
       <c r="K5" t="n">
         <v>104.6029931818182</v>
@@ -1067,7 +1081,7 @@
         <v>0.0023395735</v>
       </c>
       <c r="O5" t="n">
-        <v>0.3360716952949963</v>
+        <v>0.2076603599446239</v>
       </c>
       <c r="P5" t="n">
         <v>35389.81511638255</v>
@@ -1079,7 +1093,7 @@
         <v>0.4280657627</v>
       </c>
       <c r="S5" t="n">
-        <v>61.83719193427931</v>
+        <v>38.2095062298108</v>
       </c>
       <c r="T5" t="n">
         <v>0.0467931238</v>
@@ -1133,18 +1147,21 @@
         <v>67</v>
       </c>
       <c r="AK5" t="n">
-        <v>0</v>
+        <v>4334</v>
       </c>
       <c r="AL5" t="n">
         <v>0</v>
       </c>
       <c r="AM5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN5" t="n">
         <v>1653.0363</v>
       </c>
-      <c r="AN5" t="n">
+      <c r="AO5" t="n">
         <v>947</v>
       </c>
-      <c r="AO5" t="n">
+      <c r="AP5" t="n">
         <v>220</v>
       </c>
     </row>
@@ -1164,7 +1181,7 @@
         <v>0.0032343431</v>
       </c>
       <c r="E6" t="n">
-        <v>0.642791551882461</v>
+        <v>0.4936530324400564</v>
       </c>
       <c r="F6" t="n">
         <v>166.3183357142857</v>
@@ -1179,7 +1196,7 @@
         <v>0.0384210331</v>
       </c>
       <c r="J6" t="n">
-        <v>99.31129476584022</v>
+        <v>76.26939351198871</v>
       </c>
       <c r="K6" t="n">
         <v>108.7409413043478</v>
@@ -1194,7 +1211,7 @@
         <v>0.0002962594</v>
       </c>
       <c r="O6" t="n">
-        <v>0.04591368227731864</v>
+        <v>0.03526093088857546</v>
       </c>
       <c r="P6" t="n">
         <v>15684.72815396022</v>
@@ -1206,7 +1223,7 @@
         <v>0.178620826</v>
       </c>
       <c r="S6" t="n">
-        <v>30.21120293847567</v>
+        <v>23.20169252468265</v>
       </c>
       <c r="T6" t="n">
         <v>0.0419516356</v>
@@ -1260,18 +1277,21 @@
         <v>2</v>
       </c>
       <c r="AK6" t="n">
-        <v>0</v>
+        <v>2836</v>
       </c>
       <c r="AL6" t="n">
         <v>0</v>
       </c>
       <c r="AM6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN6" t="n">
         <v>1009.1381</v>
       </c>
-      <c r="AN6" t="n">
+      <c r="AO6" t="n">
         <v>532</v>
       </c>
-      <c r="AO6" t="n">
+      <c r="AP6" t="n">
         <v>136</v>
       </c>
     </row>
@@ -1291,7 +1311,7 @@
         <v>0.003398121100000001</v>
       </c>
       <c r="E7" t="n">
-        <v>0.4672897196261682</v>
+        <v>0.3544303797468354</v>
       </c>
       <c r="F7" t="n">
         <v>152.2674</v>
@@ -1306,7 +1326,7 @@
         <v>0.0465926961</v>
       </c>
       <c r="J7" t="n">
-        <v>99.39919893190921</v>
+        <v>75.39240506329114</v>
       </c>
       <c r="K7" t="n">
         <v>108.3162077777778</v>
@@ -1321,7 +1341,7 @@
         <v>0.0010023711</v>
       </c>
       <c r="O7" t="n">
-        <v>0.1335113484646195</v>
+        <v>0.1012658227848101</v>
       </c>
       <c r="P7" t="n">
         <v>18708.38109567665</v>
@@ -1333,7 +1353,7 @@
         <v>0.2498589876</v>
       </c>
       <c r="S7" t="n">
-        <v>31.84245660881175</v>
+        <v>24.15189873417722</v>
       </c>
       <c r="T7" t="n">
         <v>0.05099318830000001</v>
@@ -1387,18 +1407,21 @@
         <v>10</v>
       </c>
       <c r="AK7" t="n">
-        <v>0</v>
+        <v>3950</v>
       </c>
       <c r="AL7" t="n">
         <v>0</v>
       </c>
       <c r="AM7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN7" t="n">
         <v>1287.7769</v>
       </c>
-      <c r="AN7" t="n">
+      <c r="AO7" t="n">
         <v>725</v>
       </c>
-      <c r="AO7" t="n">
+      <c r="AP7" t="n">
         <v>180</v>
       </c>
     </row>
@@ -1418,7 +1441,7 @@
         <v>0.0065842382</v>
       </c>
       <c r="E8" t="n">
-        <v>0.6259780907668232</v>
+        <v>0.4473558076370027</v>
       </c>
       <c r="F8" t="n">
         <v>184.831125</v>
@@ -1433,7 +1456,7 @@
         <v>0.0675324078</v>
       </c>
       <c r="J8" t="n">
-        <v>99.32930918846412</v>
+        <v>70.98578047611439</v>
       </c>
       <c r="K8" t="n">
         <v>100.2140867768595</v>
@@ -1448,7 +1471,7 @@
         <v>0.0005247324</v>
       </c>
       <c r="O8" t="n">
-        <v>0.0447127207690588</v>
+        <v>0.0319539862597859</v>
       </c>
       <c r="P8" t="n">
         <v>23927.7467576885</v>
@@ -1460,7 +1483,7 @@
         <v>0.485567926</v>
       </c>
       <c r="S8" t="n">
-        <v>39.9284596467695</v>
+        <v>28.53490972998882</v>
       </c>
       <c r="T8" t="n">
         <v>0.0746413784</v>
@@ -1514,18 +1537,21 @@
         <v>6</v>
       </c>
       <c r="AK8" t="n">
-        <v>0</v>
+        <v>6259</v>
       </c>
       <c r="AL8" t="n">
         <v>0</v>
       </c>
       <c r="AM8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN8" t="n">
         <v>2158.2398</v>
       </c>
-      <c r="AN8" t="n">
+      <c r="AO8" t="n">
         <v>1423</v>
       </c>
-      <c r="AO8" t="n">
+      <c r="AP8" t="n">
         <v>246</v>
       </c>
     </row>
@@ -1545,7 +1571,7 @@
         <v>0.0101607896</v>
       </c>
       <c r="E9" t="n">
-        <v>1.143921255653099</v>
+        <v>0.7838133430550491</v>
       </c>
       <c r="F9" t="n">
         <v>156.1432325581395</v>
@@ -1560,7 +1586,7 @@
         <v>0.0609488209</v>
       </c>
       <c r="J9" t="n">
-        <v>98.59005054535781</v>
+        <v>67.55377324097704</v>
       </c>
       <c r="K9" t="n">
         <v>104.4460034782609</v>
@@ -1575,7 +1601,7 @@
         <v>0.0025202549</v>
       </c>
       <c r="O9" t="n">
-        <v>0.2660281989890929</v>
+        <v>0.1822821728034998</v>
       </c>
       <c r="P9" t="n">
         <v>23455.15628227673</v>
@@ -1587,7 +1613,7 @@
         <v>0.4615601152</v>
       </c>
       <c r="S9" t="n">
-        <v>45.94306996541633</v>
+        <v>31.48013124316441</v>
       </c>
       <c r="T9" t="n">
         <v>0.07362986540000001</v>
@@ -1641,18 +1667,21 @@
         <v>32</v>
       </c>
       <c r="AK9" t="n">
-        <v>0</v>
+        <v>5486</v>
       </c>
       <c r="AL9" t="n">
         <v>0</v>
       </c>
       <c r="AM9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN9" t="n">
         <v>1788.5263</v>
       </c>
-      <c r="AN9" t="n">
+      <c r="AO9" t="n">
         <v>1030</v>
       </c>
-      <c r="AO9" t="n">
+      <c r="AP9" t="n">
         <v>240</v>
       </c>
     </row>
@@ -1672,7 +1701,7 @@
         <v>0.005644819799999999</v>
       </c>
       <c r="E10" t="n">
-        <v>0.6271951831409934</v>
+        <v>0.5556790397866193</v>
       </c>
       <c r="F10" t="n">
         <v>218.5994</v>
@@ -1687,7 +1716,7 @@
         <v>0.05741768019999999</v>
       </c>
       <c r="J10" t="n">
-        <v>99.27245358755646</v>
+        <v>87.95287841742609</v>
       </c>
       <c r="K10" t="n">
         <v>120.1018693989071</v>
@@ -1702,7 +1731,7 @@
         <v>0.0011969117</v>
       </c>
       <c r="O10" t="n">
-        <v>0.100351229302559</v>
+        <v>0.08890864636585907</v>
       </c>
       <c r="P10" t="n">
         <v>7983.266364077219</v>
@@ -1714,7 +1743,7 @@
         <v>0.1369860978</v>
       </c>
       <c r="S10" t="n">
-        <v>12.87004515805319</v>
+        <v>11.40253389642143</v>
       </c>
       <c r="T10" t="n">
         <v>0.06425941169999999</v>
@@ -1768,18 +1797,21 @@
         <v>11</v>
       </c>
       <c r="AK10" t="n">
-        <v>0</v>
+        <v>4499</v>
       </c>
       <c r="AL10" t="n">
         <v>0</v>
       </c>
       <c r="AM10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN10" t="n">
         <v>830.5307</v>
       </c>
-      <c r="AN10" t="n">
+      <c r="AO10" t="n">
         <v>471</v>
       </c>
-      <c r="AO10" t="n">
+      <c r="AP10" t="n">
         <v>105</v>
       </c>
     </row>
@@ -1799,7 +1831,7 @@
         <v>0.0026346133</v>
       </c>
       <c r="E11" t="n">
-        <v>0.3352636391344103</v>
+        <v>0.2862347124642207</v>
       </c>
       <c r="F11" t="n">
         <v>234.9936909090909</v>
@@ -1814,7 +1846,7 @@
         <v>0.05316371610000001</v>
       </c>
       <c r="J11" t="n">
-        <v>99.66473636086559</v>
+        <v>85.08977361436378</v>
       </c>
       <c r="K11" t="n">
         <v>114.2560335365853</v>
@@ -1841,7 +1873,7 @@
         <v>0.1458112916</v>
       </c>
       <c r="S11" t="n">
-        <v>17.1289241085035</v>
+        <v>14.623991673172</v>
       </c>
       <c r="T11" t="n">
         <v>0.05579832940000001</v>
@@ -1895,18 +1927,21 @@
         <v>0</v>
       </c>
       <c r="AK11" t="n">
-        <v>0</v>
+        <v>3843</v>
       </c>
       <c r="AL11" t="n">
         <v>0</v>
       </c>
       <c r="AM11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN11" t="n">
         <v>680.4159</v>
       </c>
-      <c r="AN11" t="n">
+      <c r="AO11" t="n">
         <v>401</v>
       </c>
-      <c r="AO11" t="n">
+      <c r="AP11" t="n">
         <v>84</v>
       </c>
     </row>
@@ -1926,7 +1961,7 @@
         <v>0.009042300499999999</v>
       </c>
       <c r="E12" t="n">
-        <v>0.7206856252434749</v>
+        <v>0.6176961602671118</v>
       </c>
       <c r="F12" t="n">
         <v>200.4966432432432</v>
@@ -1941,7 +1976,7 @@
         <v>0.08091826519999999</v>
       </c>
       <c r="J12" t="n">
-        <v>99.1819244253993</v>
+        <v>85.00834724540901</v>
       </c>
       <c r="K12" t="n">
         <v>110.6023914754098</v>
@@ -1956,7 +1991,7 @@
         <v>0.0011727257</v>
       </c>
       <c r="O12" t="n">
-        <v>0.09738994935722634</v>
+        <v>0.08347245409015025</v>
       </c>
       <c r="P12" t="n">
         <v>9392.835338766225</v>
@@ -1968,7 +2003,7 @@
         <v>0.2249503946</v>
       </c>
       <c r="S12" t="n">
-        <v>16.67315932995715</v>
+        <v>14.29048414023372</v>
       </c>
       <c r="T12" t="n">
         <v>0.0911332914</v>
@@ -2022,18 +2057,21 @@
         <v>16</v>
       </c>
       <c r="AK12" t="n">
-        <v>0</v>
+        <v>5990</v>
       </c>
       <c r="AL12" t="n">
         <v>0</v>
       </c>
       <c r="AM12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN12" t="n">
         <v>1369.3071</v>
       </c>
-      <c r="AN12" t="n">
+      <c r="AO12" t="n">
         <v>698</v>
       </c>
-      <c r="AO12" t="n">
+      <c r="AP12" t="n">
         <v>211</v>
       </c>
     </row>
@@ -2053,7 +2091,7 @@
         <v>0.0173136568</v>
       </c>
       <c r="E13" t="n">
-        <v>1.034928848641656</v>
+        <v>0.8936328658309545</v>
       </c>
       <c r="F13" t="n">
         <v>214.1626013888889</v>
@@ -2068,7 +2106,7 @@
         <v>0.09479006469999998</v>
       </c>
       <c r="J13" t="n">
-        <v>98.76383498634469</v>
+        <v>85.27988084895122</v>
       </c>
       <c r="K13" t="n">
         <v>121.5753699731903</v>
@@ -2083,7 +2121,7 @@
         <v>0.0032629815</v>
       </c>
       <c r="O13" t="n">
-        <v>0.2012361650136553</v>
+        <v>0.1737619461337967</v>
       </c>
       <c r="P13" t="n">
         <v>9534.813524141366</v>
@@ -2095,7 +2133,7 @@
         <v>0.2861696678</v>
       </c>
       <c r="S13" t="n">
-        <v>15.81141296535863</v>
+        <v>13.65272433908403</v>
       </c>
       <c r="T13" t="n">
         <v>0.115366703</v>
@@ -2149,18 +2187,21 @@
         <v>52</v>
       </c>
       <c r="AK13" t="n">
-        <v>0</v>
+        <v>8057</v>
       </c>
       <c r="AL13" t="n">
         <v>0</v>
       </c>
       <c r="AM13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN13" t="n">
         <v>1901.5847</v>
       </c>
-      <c r="AN13" t="n">
+      <c r="AO13" t="n">
         <v>1044</v>
       </c>
-      <c r="AO13" t="n">
+      <c r="AP13" t="n">
         <v>260</v>
       </c>
     </row>
@@ -2180,7 +2221,7 @@
         <v>0.0113506613</v>
       </c>
       <c r="E14" t="n">
-        <v>0.8996937212863706</v>
+        <v>0.7737899242673691</v>
       </c>
       <c r="F14" t="n">
         <v>206.1836617021276</v>
@@ -2195,7 +2236,7 @@
         <v>0.0817654281</v>
       </c>
       <c r="J14" t="n">
-        <v>99.00459418070444</v>
+        <v>85.14981890023049</v>
       </c>
       <c r="K14" t="n">
         <v>114.8981579661017</v>
@@ -2210,7 +2251,7 @@
         <v>0.0015275873</v>
       </c>
       <c r="O14" t="n">
-        <v>0.09571209800918837</v>
+        <v>0.08231807704972012</v>
       </c>
       <c r="P14" t="n">
         <v>8981.054304286132</v>
@@ -2222,7 +2263,7 @@
         <v>0.2223356261</v>
       </c>
       <c r="S14" t="n">
-        <v>16.27105666156202</v>
+        <v>13.99407309845242</v>
       </c>
       <c r="T14" t="n">
         <v>0.0946436767</v>
@@ -2276,18 +2317,21 @@
         <v>14</v>
       </c>
       <c r="AK14" t="n">
-        <v>0</v>
+        <v>6074</v>
       </c>
       <c r="AL14" t="n">
         <v>0</v>
       </c>
       <c r="AM14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN14" t="n">
         <v>1495.973</v>
       </c>
-      <c r="AN14" t="n">
+      <c r="AO14" t="n">
         <v>859</v>
       </c>
-      <c r="AO14" t="n">
+      <c r="AP14" t="n">
         <v>195</v>
       </c>
     </row>
@@ -2307,7 +2351,7 @@
         <v>0.0164238245</v>
       </c>
       <c r="E15" t="n">
-        <v>1.309963099630996</v>
+        <v>1.052787663107948</v>
       </c>
       <c r="F15" t="n">
         <v>208.2490140845071</v>
@@ -2322,7 +2366,7 @@
         <v>0.07494141139999999</v>
       </c>
       <c r="J15" t="n">
-        <v>98.39483394833948</v>
+        <v>79.07769869513642</v>
       </c>
       <c r="K15" t="n">
         <v>113.3036694444444</v>
@@ -2337,7 +2381,7 @@
         <v>0.0036930575</v>
       </c>
       <c r="O15" t="n">
-        <v>0.2952029520295203</v>
+        <v>0.2372479240806643</v>
       </c>
       <c r="P15" t="n">
         <v>13928.29549788656</v>
@@ -2349,7 +2393,7 @@
         <v>0.3459982206</v>
       </c>
       <c r="S15" t="n">
-        <v>24.4280442804428</v>
+        <v>19.63226571767497</v>
       </c>
       <c r="T15" t="n">
         <v>0.09505829339999999</v>
@@ -2403,18 +2447,21 @@
         <v>64</v>
       </c>
       <c r="AK15" t="n">
-        <v>0</v>
+        <v>6744</v>
       </c>
       <c r="AL15" t="n">
         <v>0</v>
       </c>
       <c r="AM15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN15" t="n">
         <v>2010.6675</v>
       </c>
-      <c r="AN15" t="n">
+      <c r="AO15" t="n">
         <v>1041</v>
       </c>
-      <c r="AO15" t="n">
+      <c r="AP15" t="n">
         <v>286</v>
       </c>
     </row>
@@ -2434,7 +2481,7 @@
         <v>0.010905343</v>
       </c>
       <c r="E16" t="n">
-        <v>2.793946449359721</v>
+        <v>2.183803457688808</v>
       </c>
       <c r="F16" t="n">
         <v>206.8046958333333</v>
@@ -2449,7 +2496,7 @@
         <v>0.0210538234</v>
       </c>
       <c r="J16" t="n">
-        <v>97.03143189755529</v>
+        <v>75.84167424931756</v>
       </c>
       <c r="K16" t="n">
         <v>118.5635444444444</v>
@@ -2464,7 +2511,7 @@
         <v>0.0006672576</v>
       </c>
       <c r="O16" t="n">
-        <v>0.1746216530849825</v>
+        <v>0.1364877161055505</v>
       </c>
       <c r="P16" t="n">
         <v>14712.00153593296</v>
@@ -2476,7 +2523,7 @@
         <v>0.1221436278</v>
       </c>
       <c r="S16" t="n">
-        <v>27.9394644935972</v>
+        <v>21.83803457688808</v>
       </c>
       <c r="T16" t="n">
         <v>0.032626424</v>
@@ -2530,18 +2577,21 @@
         <v>6</v>
       </c>
       <c r="AK16" t="n">
-        <v>0</v>
+        <v>2198</v>
       </c>
       <c r="AL16" t="n">
         <v>0</v>
       </c>
       <c r="AM16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN16" t="n">
         <v>507.0332</v>
       </c>
-      <c r="AN16" t="n">
+      <c r="AO16" t="n">
         <v>288</v>
       </c>
-      <c r="AO16" t="n">
+      <c r="AP16" t="n">
         <v>67</v>
       </c>
     </row>
@@ -2561,7 +2611,7 @@
         <v>0.0100482637</v>
       </c>
       <c r="E17" t="n">
-        <v>2.042711234911792</v>
+        <v>1.383647798742139</v>
       </c>
       <c r="F17" t="n">
         <v>184.6264090909091</v>
@@ -2576,7 +2626,7 @@
         <v>0.0260383608</v>
       </c>
       <c r="J17" t="n">
-        <v>97.81801299907148</v>
+        <v>66.25786163522012</v>
       </c>
       <c r="K17" t="n">
         <v>113.1482805825243</v>
@@ -2591,7 +2641,7 @@
         <v>0.0006697756</v>
       </c>
       <c r="O17" t="n">
-        <v>0.1392757660167131</v>
+        <v>0.09433962264150944</v>
       </c>
       <c r="P17" t="n">
         <v>27913.50614338318</v>
@@ -2603,7 +2653,7 @@
         <v>0.2559055338</v>
       </c>
       <c r="S17" t="n">
-        <v>47.63231197771588</v>
+        <v>32.26415094339622</v>
       </c>
       <c r="T17" t="n">
         <v>0.0367564001</v>
@@ -2657,18 +2707,21 @@
         <v>6</v>
       </c>
       <c r="AK17" t="n">
-        <v>0</v>
+        <v>3180</v>
       </c>
       <c r="AL17" t="n">
         <v>0</v>
       </c>
       <c r="AM17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN17" t="n">
         <v>973.0346999999999</v>
       </c>
-      <c r="AN17" t="n">
+      <c r="AO17" t="n">
         <v>636</v>
       </c>
-      <c r="AO17" t="n">
+      <c r="AP17" t="n">
         <v>109</v>
       </c>
     </row>
@@ -2688,7 +2741,7 @@
         <v>0.0100310934</v>
       </c>
       <c r="E18" t="n">
-        <v>1.370736372330252</v>
+        <v>1.108533127094612</v>
       </c>
       <c r="F18" t="n">
         <v>206.159123255814</v>
@@ -2703,7 +2756,7 @@
         <v>0.04452440949999999</v>
       </c>
       <c r="J18" t="n">
-        <v>98.37424290723621</v>
+        <v>79.55658674916215</v>
       </c>
       <c r="K18" t="n">
         <v>117.8123976878613</v>
@@ -2718,7 +2771,7 @@
         <v>0.0019728018</v>
       </c>
       <c r="O18" t="n">
-        <v>0.2550207204335352</v>
+        <v>0.2062387213199278</v>
       </c>
       <c r="P18" t="n">
         <v>13126.16757105755</v>
@@ -2730,7 +2783,7 @@
         <v>0.1835354901</v>
       </c>
       <c r="S18" t="n">
-        <v>23.65317182021039</v>
+        <v>19.12864140242331</v>
       </c>
       <c r="T18" t="n">
         <v>0.05652830469999999</v>
@@ -2784,18 +2837,21 @@
         <v>55</v>
       </c>
       <c r="AK18" t="n">
-        <v>0</v>
+        <v>3879</v>
       </c>
       <c r="AL18" t="n">
         <v>0</v>
       </c>
       <c r="AM18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN18" t="n">
         <v>903.8381999999999</v>
       </c>
-      <c r="AN18" t="n">
+      <c r="AO18" t="n">
         <v>508</v>
       </c>
-      <c r="AO18" t="n">
+      <c r="AP18" t="n">
         <v>122</v>
       </c>
     </row>
@@ -2815,7 +2871,7 @@
         <v>0.03093753610000001</v>
       </c>
       <c r="E19" t="n">
-        <v>0.5026715410573679</v>
+        <v>0.4919160646714826</v>
       </c>
       <c r="F19" t="n">
         <v>181.8636986013986</v>
@@ -2830,7 +2886,7 @@
         <v>0.2682462545</v>
       </c>
       <c r="J19" t="n">
-        <v>98.83295838020247</v>
+        <v>96.71826625386997</v>
       </c>
       <c r="K19" t="n">
         <v>142.4110841328413</v>
@@ -2845,7 +2901,7 @@
         <v>0.0458595533</v>
       </c>
       <c r="O19" t="n">
-        <v>0.6643700787401575</v>
+        <v>0.6501547987616099</v>
       </c>
       <c r="P19" t="n">
         <v>1802.672072933153</v>
@@ -2857,7 +2913,7 @@
         <v>0.1462742899</v>
       </c>
       <c r="S19" t="n">
-        <v>2.18644544431946</v>
+        <v>2.139662882696938</v>
       </c>
       <c r="T19" t="n">
         <v>0.3450433439</v>
@@ -2911,18 +2967,21 @@
         <v>581</v>
       </c>
       <c r="AK19" t="n">
-        <v>0</v>
+        <v>29070</v>
       </c>
       <c r="AL19" t="n">
         <v>0</v>
       </c>
       <c r="AM19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN19" t="n">
         <v>2510.6258</v>
       </c>
-      <c r="AN19" t="n">
+      <c r="AO19" t="n">
         <v>1730</v>
       </c>
-      <c r="AO19" t="n">
+      <c r="AP19" t="n">
         <v>253</v>
       </c>
     </row>
@@ -2942,7 +3001,7 @@
         <v>0.0729892739</v>
       </c>
       <c r="E20" t="n">
-        <v>1.005357497188968</v>
+        <v>0.9660914608955413</v>
       </c>
       <c r="F20" t="n">
         <v>213.8721523026316</v>
@@ -2957,7 +3016,7 @@
         <v>0.1688843925</v>
       </c>
       <c r="J20" t="n">
-        <v>98.75653151663469</v>
+        <v>94.89941843836401</v>
       </c>
       <c r="K20" t="n">
         <v>151.40588</v>
@@ -2972,7 +3031,7 @@
         <v>0.0181502873</v>
       </c>
       <c r="O20" t="n">
-        <v>0.2381109861763344</v>
+        <v>0.2288111354752598</v>
       </c>
       <c r="P20" t="n">
         <v>4726.48762743584</v>
@@ -2984,7 +3043,7 @@
         <v>0.2938834356</v>
       </c>
       <c r="S20" t="n">
-        <v>4.064422250148819</v>
+        <v>3.905678965265198</v>
       </c>
       <c r="T20" t="n">
         <v>0.2600239537</v>
@@ -3038,18 +3097,21 @@
         <v>175</v>
       </c>
       <c r="AK20" t="n">
-        <v>0</v>
+        <v>31467</v>
       </c>
       <c r="AL20" t="n">
         <v>0</v>
       </c>
       <c r="AM20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN20" t="n">
         <v>3241.6193</v>
       </c>
-      <c r="AN20" t="n">
+      <c r="AO20" t="n">
         <v>2933</v>
       </c>
-      <c r="AO20" t="n">
+      <c r="AP20" t="n">
         <v>101</v>
       </c>
     </row>
@@ -3069,7 +3131,7 @@
         <v>0.0603721486</v>
       </c>
       <c r="E21" t="n">
-        <v>1.626118744485062</v>
+        <v>1.541218637992832</v>
       </c>
       <c r="F21" t="n">
         <v>249.1431589147287</v>
@@ -3084,7 +3146,7 @@
         <v>0.08656012490000001</v>
       </c>
       <c r="J21" t="n">
-        <v>98.00201689146603</v>
+        <v>92.8853046594982</v>
       </c>
       <c r="K21" t="n">
         <v>148.9357511560694</v>
@@ -3099,7 +3161,7 @@
         <v>0.0152548811</v>
       </c>
       <c r="O21" t="n">
-        <v>0.3718643640489096</v>
+        <v>0.3524492234169653</v>
       </c>
       <c r="P21" t="n">
         <v>5388.836139061286</v>
@@ -3111,7 +3173,7 @@
         <v>0.2101838615</v>
       </c>
       <c r="S21" t="n">
-        <v>5.508634816588932</v>
+        <v>5.221027479091996</v>
       </c>
       <c r="T21" t="n">
         <v>0.1621871546</v>
@@ -3165,18 +3227,21 @@
         <v>177</v>
       </c>
       <c r="AK21" t="n">
-        <v>0</v>
+        <v>16740</v>
       </c>
       <c r="AL21" t="n">
         <v>0</v>
       </c>
       <c r="AM21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN21" t="n">
         <v>2040.624</v>
       </c>
-      <c r="AN21" t="n">
+      <c r="AO21" t="n">
         <v>1880</v>
       </c>
-      <c r="AO21" t="n">
+      <c r="AP21" t="n">
         <v>54</v>
       </c>
     </row>
@@ -3196,7 +3261,7 @@
         <v>0.0148178624</v>
       </c>
       <c r="E22" t="n">
-        <v>0.2170374389582203</v>
+        <v>0.215271622134988</v>
       </c>
       <c r="F22" t="n">
         <v>184.6035529411764</v>
@@ -3211,7 +3276,7 @@
         <v>0.1868897166</v>
       </c>
       <c r="J22" t="n">
-        <v>99.26271105295075</v>
+        <v>98.45510953526656</v>
       </c>
       <c r="K22" t="n">
         <v>155.731418974359</v>
@@ -3226,7 +3291,7 @@
         <v>0.0369489458</v>
       </c>
       <c r="O22" t="n">
-        <v>0.520251508091028</v>
+        <v>0.5160187412941624</v>
       </c>
       <c r="P22" t="n">
         <v>1076.861402450121</v>
@@ -3238,7 +3303,7 @@
         <v>0.05675971490000001</v>
       </c>
       <c r="S22" t="n">
-        <v>0.8202738501803326</v>
+        <v>0.8136001013042928</v>
       </c>
       <c r="T22" t="n">
         <v>0.2386565248</v>
@@ -3292,18 +3357,21 @@
         <v>525</v>
       </c>
       <c r="AK22" t="n">
-        <v>0</v>
+        <v>31588</v>
       </c>
       <c r="AL22" t="n">
         <v>0</v>
       </c>
       <c r="AM22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN22" t="n">
         <v>1266.9888</v>
       </c>
-      <c r="AN22" t="n">
+      <c r="AO22" t="n">
         <v>1089</v>
       </c>
-      <c r="AO22" t="n">
+      <c r="AP22" t="n">
         <v>60</v>
       </c>
     </row>
